--- a/mapping/Vertebrate_Other.xlsx
+++ b/mapping/Vertebrate_Other.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>雪雀属</t>
+          <t>岩鹨属</t>
         </is>
       </c>
     </row>
@@ -796,576 +796,576 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Oxyura</t>
+          <t>Tinamus</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>硬尾鸭属</t>
+          <t>䳍属</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Strix</t>
+          <t>Pleurodeles</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>林鸮属</t>
+          <t>肋突螈属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Caloenas</t>
+          <t>Ficedula</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>尼柯巴鸠属</t>
+          <t>姬鹟属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Xiphias</t>
+          <t>Acipenser</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>剑鱼属</t>
+          <t>鲟属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lagopus</t>
+          <t>Narcine</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>雷鸟属</t>
+          <t>双鳍电鳐属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Heliangelus</t>
+          <t>Neopelma</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>辉蜂鸟属</t>
+          <t>新霸鹟属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Styela</t>
+          <t>Pantherophis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>柄海鞘属</t>
+          <t>锦蛇属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gavialis</t>
+          <t>Erythrolamprus</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>长吻鳄属</t>
+          <t>红腹蛇属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chroicocephalus</t>
+          <t>Misgurnus</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>彩头鸥属</t>
+          <t>泥鳅属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Rissa</t>
+          <t>Carassius</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>三趾鸥属</t>
+          <t>鲫属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pipra</t>
+          <t>Amia</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>娇鹟属</t>
+          <t>弓鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pseudopipra</t>
+          <t>Cyprinus</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>伪娇鹟属</t>
+          <t>鲤属</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Columba</t>
+          <t>Bufo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>鸽属</t>
+          <t>蟾蜍属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sturnus</t>
+          <t>Excalfactoria</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>椋鸟属</t>
+          <t>小鹑属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Numenius</t>
+          <t>Geospiza</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>杓鹬属</t>
+          <t>地雀属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Passer</t>
+          <t>Xyrauchen</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>雀属</t>
+          <t>吸口鱼属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Parus</t>
+          <t>Perca</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>山雀属</t>
+          <t>鲈属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mesitornis</t>
+          <t>Labeo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>拟鹑属</t>
+          <t>野鲮属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sinocyclocheilus</t>
+          <t>Garra</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>金线鲃属</t>
+          <t>墨头鱼属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Neopelma</t>
+          <t>Etheostoma</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>新鹟鸟属</t>
+          <t>镖鲈属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Anser</t>
+          <t>Salmo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>雁属</t>
+          <t>鲑属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hippocampus</t>
+          <t>Lagopus</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>海马属</t>
+          <t>雷鸟属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Centroberyx</t>
+          <t>Myxocyprinus</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>燧鲷属</t>
+          <t>胭脂鱼属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cynoglossus</t>
+          <t>Nanorana</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>舌鳎属</t>
+          <t>倭蛙属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Spea</t>
+          <t>Micropterus</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>锄足蟾属</t>
+          <t>黑鲈属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chanos</t>
+          <t>Gasterosteus</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>遮目鱼属</t>
+          <t>刺鱼属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Protopterus</t>
+          <t>Oenanthe</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>原鳍鱼属</t>
+          <t>䳭属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ambystoma</t>
+          <t>Taeniopygia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>钝口螈属</t>
+          <t>草雀属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Scomber</t>
+          <t>Paramisgurnus</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>鲭属</t>
+          <t>黄颡鱼属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Chanodichthys</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>鸭属</t>
+          <t>餐属</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Geospiza</t>
+          <t>Rana</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>地雀属</t>
+          <t>蛙属</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sebastes</t>
+          <t>Pseudorasbora</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>平鲉属</t>
+          <t>麦穗鱼属</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Heterodontus</t>
+          <t>Polypterus</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>虎鲨属</t>
+          <t>多鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bombina</t>
+          <t>Pungitius</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>铃蟾属</t>
+          <t>九刺鱼属</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aquarana</t>
+          <t>Sander</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>水蛙属</t>
+          <t>鲈属</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Falco</t>
+          <t>Esox</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>隼属</t>
+          <t>狗鱼属</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Taeniopygia</t>
+          <t>Sinocyclocheilus</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>草雀属</t>
+          <t>金线鲃属</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Chamaea</t>
+          <t>Onychostoma</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>丛雀属</t>
+          <t>白甲鱼属</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Melanerpes</t>
+          <t>Puntigrus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>吸汁啄木鸟属</t>
+          <t>无须魮属</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Neoarius</t>
+          <t>Pimephales</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>新海鲶属</t>
+          <t>小体鲦属</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Trachinotus</t>
+          <t>Toxotes</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>鲳鲹属</t>
+          <t>射水鱼属</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pleurodeles</t>
+          <t>Ctenopharyngodon</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>肋突螈属</t>
+          <t>草鱼属</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Myxocyprinus</t>
+          <t>Heliangelus</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>胭脂鱼属</t>
+          <t>辉蜂鸟属</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Phyllobates</t>
+          <t>Megalobrama</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>叶毒蛙属</t>
+          <t>鲂属</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Garra</t>
+          <t>Silurus</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>墨头鱼属</t>
+          <t>鲇属</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Nematolebias</t>
+          <t>Antrostomus</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>线鳉属</t>
+          <t>夜鹰属（美夜鹰属）</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Eublepharis</t>
+          <t>Rhinichthys</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>睑虎属</t>
+          <t>吻鱥属</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ahaetulla</t>
+          <t>Scyliorhinus</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>瘦蛇属</t>
+          <t>猫鲨属</t>
         </is>
       </c>
     </row>
@@ -1384,2256 +1384,2580 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Melospiza</t>
+          <t>Sturnus</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>歌带鹀属</t>
+          <t>椋鸟属</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Eleutherodactylus</t>
+          <t>Oxyura</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>细趾蟾属</t>
+          <t>硬尾鸭属</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Colius</t>
+          <t>Poecile</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>鼠鸟属</t>
+          <t>山雀属</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Paramisgurnus</t>
+          <t>Periophthalmus</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>黄颡鱼属</t>
+          <t>弹涂鱼属</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Polyodon</t>
+          <t>Salvelinus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>白鲟属</t>
+          <t>红点鲑属</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Salmo</t>
+          <t>Oryzias</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>鲑属</t>
+          <t>青鳉属</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Gadus</t>
+          <t>Corvus</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>鳕属</t>
+          <t>鸦属</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ficedula</t>
+          <t>Paramormyrops</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>姬鹟属</t>
+          <t>副指颌鱼属</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Doryrhamphus</t>
+          <t>Fundulus</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>海龙属</t>
+          <t>鳉属</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Salarias</t>
+          <t>Cynoglossus</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>唇指䲁属</t>
+          <t>舌鳎属</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Sphaeramia</t>
+          <t>Sebastes</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>玫瑰鱼属</t>
+          <t>平鲉属</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Apteryx</t>
+          <t>Pleuronectes</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>几维鸟属</t>
+          <t>鲽属</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Malaclemys</t>
+          <t>Clarias</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>钻纹龟属</t>
+          <t>胡子鲶属</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Acipenser</t>
+          <t>Strix</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>鲟属</t>
+          <t>林鸮属</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Caloenas</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>原鸡属</t>
+          <t>尼柯巴鸠属</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cyprinodon</t>
+          <t>Xiphias</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>鳉属</t>
+          <t>剑鱼属</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Conger</t>
+          <t>Styela</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>康吉鳗属</t>
+          <t>柄海鞘属</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Crotalus</t>
+          <t>Gavialis</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>响尾蛇属</t>
+          <t>长吻鳄属</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pelobates</t>
+          <t>Chroicocephalus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>欧芹蟾属</t>
+          <t>彩头鸥属</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lepidothrix</t>
+          <t>Rissa</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>娇鹟属</t>
+          <t>三趾鸥属</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Onychostoma</t>
+          <t>Pipra</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>白甲鱼属</t>
+          <t>娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Patagioenas</t>
+          <t>Pseudopipra</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>鸽属</t>
+          <t>伪娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Emydura</t>
+          <t>Columba</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>澳龟属</t>
+          <t>鸽属</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Salvelinus</t>
+          <t>Numenius</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>红点鲑属</t>
+          <t>杓鹬属</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Phaenicophaeus</t>
+          <t>Passer</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>鹃鵙属</t>
+          <t>雀属</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Carettochelys</t>
+          <t>Parus</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>猪鼻龟属</t>
+          <t>山雀属</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Megalobrama</t>
+          <t>Mesitornis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>鲂属</t>
+          <t>拟鹑属</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dryobates</t>
+          <t>Anser</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>啄木鸟属</t>
+          <t>雁属</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Scyliorhinus</t>
+          <t>Hippocampus</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>猫鲨属</t>
+          <t>海马属</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bufo</t>
+          <t>Centroberyx</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>蟾蜍属</t>
+          <t>燧鲷属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gambusia</t>
+          <t>Spea</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>食蚊鱼属</t>
+          <t>锄足蟾属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mastacembelus</t>
+          <t>Chanos</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>刺鳅属</t>
+          <t>遮目鱼属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Girardinichthys</t>
+          <t>Protopterus</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>吉拉德食蚊鱼属</t>
+          <t>原鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Rhineura</t>
+          <t>Ambystoma</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>蠕蜥属</t>
+          <t>钝口螈属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epinephelus</t>
+          <t>Scomber</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>石斑鱼属</t>
+          <t>鲭属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Brachionichthys</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>手鱼属</t>
+          <t>鸭属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Microcaecilia</t>
+          <t>Heterodontus</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>小盲螈属</t>
+          <t>虎鲨属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Buteo</t>
+          <t>Bombina</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>鵟属</t>
+          <t>铃蟾属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Brienomyrus</t>
+          <t>Aquarana</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>短颌鱼属</t>
+          <t>水蛙属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Erythrolamprus</t>
+          <t>Falco</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>红腹蛇属</t>
+          <t>隼属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Anoplopoma</t>
+          <t>Chamaea</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>裸盖鱼属</t>
+          <t>丛雀属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Osmerus</t>
+          <t>Melanerpes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>胡瓜鱼属</t>
+          <t>吸汁啄木鸟属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Pseudorasbora</t>
+          <t>Neoarius</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>麦穗鱼属</t>
+          <t>新海鲶属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Pristiophorus</t>
+          <t>Trachinotus</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>锯鲨属</t>
+          <t>鲳鲹属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Polypterus</t>
+          <t>Phyllobates</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>多鳍鱼属</t>
+          <t>叶毒蛙属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Tyto</t>
+          <t>Nematolebias</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>草鸮属</t>
+          <t>线鳉属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Synchiropus</t>
+          <t>Eublepharis</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>连鳍䲗属</t>
+          <t>睑虎属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hyla</t>
+          <t>Ahaetulla</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>雨蛙属</t>
+          <t>瘦蛇属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pseudophryne</t>
+          <t>Melospiza</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>伪蟾属</t>
+          <t>歌带鹀属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Mobula</t>
+          <t>Eleutherodactylus</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>蝠鲼属</t>
+          <t>雨蛙属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Heteronotia</t>
+          <t>Colius</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>异鳞虎属</t>
+          <t>鼠鸟属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Erpetoichthys</t>
+          <t>Polyodon</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>苇栖多鳍鱼属</t>
+          <t>白鲟属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Austrofundulus</t>
+          <t>Gadus</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>南鳉属</t>
+          <t>鳕属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Gekko</t>
+          <t>Doryrhamphus</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>壁虎属</t>
+          <t>海龙属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Syngnathus</t>
+          <t>Salarias</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>海龙属</t>
+          <t>唇指䲁属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Silurus</t>
+          <t>Sphaeramia</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>鲶属</t>
+          <t>玫瑰鱼属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Parambassis</t>
+          <t>Apteryx</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>副双边鱼属</t>
+          <t>几维鸟属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Salminus</t>
+          <t>Malaclemys</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>突脂鲤属</t>
+          <t>钻纹龟属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Lethenteron</t>
+          <t>Gallus</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>七鳃鳗属</t>
+          <t>原鸡属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Dromaius</t>
+          <t>Cyprinodon</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>鸸鹋属</t>
+          <t>鳉属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Natator</t>
+          <t>Conger</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>扁背龟属</t>
+          <t>康吉鳗属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pseudochaenichthys</t>
+          <t>Crotalus</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>冰鱼属</t>
+          <t>响尾蛇属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Syngnathoides</t>
+          <t>Pelobates</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>拟海龙属</t>
+          <t>欧芹蟾属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Poecile</t>
+          <t>Lepidothrix</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>山雀属</t>
+          <t>娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Tiliqua</t>
+          <t>Patagioenas</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>蓝舌石龙子属</t>
+          <t>鸽属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lathamus</t>
+          <t>Emydura</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>吸蜜鹦鹉属</t>
+          <t>澳龟属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Oryzias</t>
+          <t>Phaenicophaeus</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>青鳉属</t>
+          <t>鹃鵙属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Aythya</t>
+          <t>Carettochelys</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>潜鸭属</t>
+          <t>猪鼻龟属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Chanodichthys</t>
+          <t>Dryobates</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>餐属</t>
+          <t>啄木鸟属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Amia</t>
+          <t>Gambusia</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>弓鳍鱼属</t>
+          <t>食蚊鱼属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Xiphophorus</t>
+          <t>Mastacembelus</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>剑尾鱼属</t>
+          <t>刺鳅属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Engystomops</t>
+          <t>Girardinichthys</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>合附蟾属</t>
+          <t>吉拉德食蚊鱼属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Solea</t>
+          <t>Rhineura</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>鳎属</t>
+          <t>蠕蜥属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Corvus</t>
+          <t>Epinephelus</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>鸦属</t>
+          <t>石斑鱼属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Puntigrus</t>
+          <t>Brachionichthys</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>无须魮属</t>
+          <t>手鱼属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Pseudoliparis</t>
+          <t>Microcaecilia</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>拟狮子鱼属</t>
+          <t>小盲螈属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lepisosteus</t>
+          <t>Buteo</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>雀鳝属</t>
+          <t>鵟属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Struthio</t>
+          <t>Brienomyrus</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>鸵鸟属</t>
+          <t>短颌鱼属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Zonotrichia</t>
+          <t>Anoplopoma</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>带鹀属</t>
+          <t>裸盖鱼属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Eucyclogobius</t>
+          <t>Osmerus</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>真弯颌鳚属</t>
+          <t>胡瓜鱼属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Periophthalmus</t>
+          <t>Pristiophorus</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>弹涂鱼属</t>
+          <t>锯鲨属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Paramormyrops</t>
+          <t>Tyto</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>副长颌鱼属</t>
+          <t>草鸮属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Fundulus</t>
+          <t>Synchiropus</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>鳉属</t>
+          <t>连鳍䲗属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Rana</t>
+          <t>Hyla</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>蛙属</t>
+          <t>雨蛙属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Pituophis</t>
+          <t>Pseudophryne</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>松蛇属</t>
+          <t>伪蟾属</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Nothobranchius</t>
+          <t>Mobula</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>假鳃鳉属</t>
+          <t>蝠鲼属</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Chaetodon</t>
+          <t>Heteronotia</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>蝴蝶鱼属</t>
+          <t>异鳞虎属</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Anomalospiza</t>
+          <t>Erpetoichthys</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>异雀属</t>
+          <t>苇栖多鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hippoglossus</t>
+          <t>Austrofundulus</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>庸鲽属</t>
+          <t>南鳉属</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Chrysemys</t>
+          <t>Gekko</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>彩龟属</t>
+          <t>壁虎属</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Clarias</t>
+          <t>Syngnathus</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>胡子鲶属</t>
+          <t>海龙属</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Manacus</t>
+          <t>Parambassis</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>娇鹟属</t>
+          <t>副双边鱼属</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Rhinichthys</t>
+          <t>Salminus</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>吻鱥属</t>
+          <t>突脂鲤属</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Leucoraja</t>
+          <t>Lethenteron</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>白鳐属</t>
+          <t>七鳃鳗属</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Brachyistius</t>
+          <t>Dromaius</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>短鳚属</t>
+          <t>鸸鹋属</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Cinclus</t>
+          <t>Natator</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>河乌属</t>
+          <t>扁背龟属</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Gopherus</t>
+          <t>Pseudochaenichthys</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>沙龟属</t>
+          <t>冰鱼属</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Pangasianodon</t>
+          <t>Syngnathoides</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>巨鲶属</t>
+          <t>拟海龙属</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Pleuronectes</t>
+          <t>Tiliqua</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>鲽属</t>
+          <t>蓝舌石龙子属</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cyrtonyx</t>
+          <t>Lathamus</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>彩鹑属</t>
+          <t>吸蜜鹦鹉属</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Anolis</t>
+          <t>Aythya</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>安乐蜥属</t>
+          <t>潜鸭属</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Athene</t>
+          <t>Xiphophorus</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>小鸮属</t>
+          <t>剑尾鱼属</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Amblyraja</t>
+          <t>Engystomops</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>扁鳐属</t>
+          <t>合附蟾属</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gouania</t>
+          <t>Solea</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>咀签属</t>
+          <t>鳎属</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Tinamus</t>
+          <t>Pseudoliparis</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>䳍属</t>
+          <t>拟狮子鱼属</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Pseudopodoces</t>
+          <t>Lepisosteus</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>地山雀属</t>
+          <t>雀鳝属</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Oenanthe</t>
+          <t>Struthio</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>䳭属</t>
+          <t>鸵鸟属</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Pygocentrus</t>
+          <t>Zonotrichia</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>食人鲳属 / 水虎鱼属</t>
+          <t>带鹀属</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Antennarius</t>
+          <t>Eucyclogobius</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>躄鱼属</t>
+          <t>真弯颌鳚属</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Astyanax</t>
+          <t>Pituophis</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>丽脂鲤属</t>
+          <t>松蛇属</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Egretta</t>
+          <t>Nothobranchius</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>白鹭属</t>
+          <t>假鳃鳉属</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Clupea</t>
+          <t>Chaetodon</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>鲱属</t>
+          <t>蝴蝶鱼属</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Pezoporus</t>
+          <t>Anomalospiza</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>地鹦鹉属</t>
+          <t>异雀属</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Calypte</t>
+          <t>Hippoglossus</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>星蜂鸟属</t>
+          <t>庸鲽属</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Stegostoma</t>
+          <t>Chrysemys</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>豹纹鲨属</t>
+          <t>彩龟属</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Prinia</t>
+          <t>Manacus</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>鹪莺属</t>
+          <t>娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Thamnophis</t>
+          <t>Leucoraja</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>束带蛇属</t>
+          <t>白鳐属</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ardea</t>
+          <t>Brachyistius</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>鹭属</t>
+          <t>短鳚属</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Engraulis</t>
+          <t>Cinclus</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>鳀属</t>
+          <t>河乌属</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Anabas</t>
+          <t>Gopherus</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>攀鲈属</t>
+          <t>沙龟属</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pogoniulus</t>
+          <t>Pangasianodon</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>须䴕属</t>
+          <t>巨鲶属</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Astatotilapia</t>
+          <t>Cyrtonyx</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>星斑非鲫属</t>
+          <t>彩鹑属</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Oreochromis</t>
+          <t>Anolis</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>罗非鱼属</t>
+          <t>安乐蜥属</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Terrapene</t>
+          <t>Athene</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>箱龟属</t>
+          <t>小鸮属</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Chelonia</t>
+          <t>Amblyraja</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>海龟属</t>
+          <t>扁鳐属</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Carassius</t>
+          <t>Gouania</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>鲫属</t>
+          <t>咀签属</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Eleginops</t>
+          <t>Pseudopodoces</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>南美鳕属</t>
+          <t>地山雀属</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Emys</t>
+          <t>Geotrypetes</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>泽龟属</t>
+          <t>真蚓属</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Trachemys</t>
+          <t>Euleptes</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>红耳龟属</t>
+          <t>真壁蜥属</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Nanorana</t>
+          <t>Molothrus</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>倭蛙属</t>
+          <t>牛鹂属</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Pelmatolapia</t>
+          <t>Poeciliopsis</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>盾皮鲷属</t>
+          <t>花鳉属</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Elgaria</t>
+          <t>Pagrus</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>铠蜥属</t>
+          <t>鲷属</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Harpia</t>
+          <t>Sardina</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>角雕属</t>
+          <t>沙丁鱼属</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Crocodylus</t>
+          <t>Semicossyphus</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>鳄属</t>
+          <t>隆头鱼属</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Chiroxiphia</t>
+          <t>Myxine</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>领娇鹟属</t>
+          <t>盲鳗属</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Phalacrocorax</t>
+          <t>Hemiscyllium</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>鸬鹚属</t>
+          <t>竹鲨属</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Catharus</t>
+          <t>Chaetura</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>夜鸫属</t>
+          <t>雨燕属</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Siniperca</t>
+          <t>Pygocentrus</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>鳜属</t>
+          <t>食人鲳属 / 水虎鱼属</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Mauremys</t>
+          <t>Antennarius</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>拟水龟属</t>
+          <t>躄鱼属</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Dermochelys</t>
+          <t>Astyanax</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>棱皮龟属</t>
+          <t>丽脂鲤属</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Aquila</t>
+          <t>Egretta</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>雕属</t>
+          <t>白鹭属</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Nothoprocta</t>
+          <t>Clupea</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>拟䳍属</t>
+          <t>鲱属</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ciconia</t>
+          <t>Pezoporus</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>鹳属</t>
+          <t>地鹦鹉属</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Archocentrus</t>
+          <t>Calypte</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>宝莲灯鱼属</t>
+          <t>星蜂鸟属</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Excalfactoria</t>
+          <t>Stegostoma</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>蓝胸鹑属</t>
+          <t>豹纹鲨属</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Phyllopteryx</t>
+          <t>Prinia</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>叶海龙属</t>
+          <t>鹪莺属</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Rhincodon</t>
+          <t>Thamnophis</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>鲸鲨属</t>
+          <t>束带蛇属</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Euleptes</t>
+          <t>Ardea</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>真壁蜥属</t>
+          <t>鹭属</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Lepidochelys</t>
+          <t>Engraulis</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>丽龟属</t>
+          <t>鳀属</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Notechis</t>
+          <t>Anabas</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>虎蛇属</t>
+          <t>攀鲈属</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Gavia</t>
+          <t>Pogoniulus</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>潜鸟属</t>
+          <t>须䴕属</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Podarcis</t>
+          <t>Astatotilapia</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>壁蜥属</t>
+          <t>星斑非鲫属</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Haliaeetus</t>
+          <t>Oreochromis</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>海雕属</t>
+          <t>罗非鱼属</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Carcharodon</t>
+          <t>Terrapene</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>噬人鲨属</t>
+          <t>箱龟属</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Coturnix</t>
+          <t>Chelonia</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>鹌鹑属</t>
+          <t>海龟属</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Leuresthes</t>
+          <t>Eleginops</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>银汉鱼属</t>
+          <t>南美鳕属</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Lacerta</t>
+          <t>Emys</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>草蜥属</t>
+          <t>泽龟属</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Hemicordylus</t>
+          <t>Trachemys</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>半肢蜥属</t>
+          <t>彩龟属</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Labrus</t>
+          <t>Pelmatolapia</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>隆头鱼属</t>
+          <t>盾皮鲷属</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Hypanus</t>
+          <t>Elgaria</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>魟属</t>
+          <t>铠蜥属</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Tympanuchus</t>
+          <t>Harpia</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>榛鸡属</t>
+          <t>角雕属</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Sardina</t>
+          <t>Crocodylus</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>沙丁鱼属</t>
+          <t>鳄属</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Haemorhous</t>
+          <t>Chiroxiphia</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>美洲朱雀属</t>
+          <t>领娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Phalacrocorax</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>蟒属</t>
+          <t>鸬鹚属</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Candoia</t>
+          <t>Catharus</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>钩盲蛇属</t>
+          <t>夜鸫属</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Heptranchias</t>
+          <t>Siniperca</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>七鳃鲨属</t>
+          <t>鳜属</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Pseudonaja</t>
+          <t>Mauremys</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>拟眼镜蛇属</t>
+          <t>拟水龟属</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Molothrus</t>
+          <t>Dermochelys</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>牛鹂属</t>
+          <t>棱皮龟属</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Camarhynchus</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>树雀属</t>
+          <t>雕属</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Rhinatrema</t>
+          <t>Nothoprocta</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>吻蚓属</t>
+          <t>拟䳍属</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Denticeps</t>
+          <t>Ciconia</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>齿脂鲤属</t>
+          <t>鹳属</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Cyprinus</t>
+          <t>Archocentrus</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>鲤属</t>
+          <t>宝莲灯鱼属</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Centrocercus</t>
+          <t>Phyllopteryx</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>艾草松鸡属</t>
+          <t>叶海龙属</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Dendropsophus</t>
+          <t>Rhincodon</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>雨滨蛙属</t>
+          <t>鲸鲨属</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Plectropomus</t>
+          <t>Lepidochelys</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>鳃棘鲈属</t>
+          <t>丽龟属</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Geotrypetes</t>
+          <t>Notechis</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>地蚓螈属</t>
+          <t>虎蛇属</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Zootoca</t>
+          <t>Gavia</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>胎生蜥蜴属</t>
+          <t>潜鸟属</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Numida</t>
+          <t>Podarcis</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>珠鸡属</t>
+          <t>壁蜥属</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Amphiprion</t>
+          <t>Haliaeetus</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>双锯鱼属</t>
+          <t>海雕属</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Enoplosus</t>
+          <t>Carcharodon</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>帆鳍鱼属</t>
+          <t>噬人鲨属</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Thalassophryne</t>
+          <t>Coturnix</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>海蟾鱼属</t>
+          <t>鹌鹑属</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ammospiza</t>
+          <t>Leuresthes</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>沙鹀属</t>
+          <t>银汉鱼属</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Cygnus</t>
+          <t>Lacerta</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>天鹅属</t>
+          <t>草蜥属</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Rhea</t>
+          <t>Hemicordylus</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>美洲鸵属</t>
+          <t>半肢蜥属</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Semicossyphus</t>
+          <t>Labrus</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>半隆头鱼属</t>
+          <t>隆头鱼属</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Pantherophis</t>
+          <t>Hypanus</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>锦蛇属</t>
+          <t>魟属</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Takifugu</t>
+          <t>Tympanuchus</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>东方鲀属</t>
+          <t>榛鸡属</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Hemiscyllium</t>
+          <t>Haemorhous</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>长尾须鲨属</t>
+          <t>美洲朱雀属</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>蟒属</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Candoia</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>筒蛇属</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Heptranchias</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>七鳃鲨属</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Pseudonaja</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>虎蛇属</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Camarhynchus</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>树雀属</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Rhinatrema</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>吻蚓属</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Denticeps</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>齿脂鲤属</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Centrocercus</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>艾草松鸡属</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Dendropsophus</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>雨滨蛙属</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Plectropomus</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>鳃棘鲈属</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zootoca</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>胎生蜥蜴属</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Numida</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>珠鸡属</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Amphiprion</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>双锯鱼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Enoplosus</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>帆鳍鱼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Thalassophryne</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>海蟾鱼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Ammospiza</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>沙鹀属</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>天鹅属</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Rhea</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>美洲鸵属</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Takifugu</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>东方鲀属</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Melozone</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>地雀鹀属</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>鸥属</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Cololabis</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>秋刀鱼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Myiozetetes</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>蝇霸鹟属</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Callorhinchus</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>叶吻银鲛属</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Cuculus</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>杜鹃属</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Nerophis</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>粗吻海龙属</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Serinus</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>丝雀属</t>
         </is>
       </c>
     </row>

--- a/mapping/Vertebrate_Other.xlsx
+++ b/mapping/Vertebrate_Other.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3448,514 +3448,538 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Phyllopteryx</t>
+          <t>Gavia</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>叶海龙属</t>
+          <t>潜鸟属</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Rhincodon</t>
+          <t>Ictalurus</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>鲸鲨属</t>
+          <t>鮰属</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Lepidochelys</t>
+          <t>Pseudonaja</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>丽龟属</t>
+          <t>虎蛇属</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Notechis</t>
+          <t>Gymnodraco</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>虎蛇属</t>
+          <t>裸龙鰧属</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Gavia</t>
+          <t>Phyllopteryx</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>潜鸟属</t>
+          <t>叶海龙属</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Podarcis</t>
+          <t>Rhincodon</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>壁蜥属</t>
+          <t>鲸鲨属</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Haliaeetus</t>
+          <t>Lepidochelys</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>海雕属</t>
+          <t>丽龟属</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Carcharodon</t>
+          <t>Notechis</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>噬人鲨属</t>
+          <t>虎蛇属</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Coturnix</t>
+          <t>Podarcis</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>鹌鹑属</t>
+          <t>壁蜥属</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Leuresthes</t>
+          <t>Haliaeetus</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>银汉鱼属</t>
+          <t>海雕属</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Lacerta</t>
+          <t>Carcharodon</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>草蜥属</t>
+          <t>噬人鲨属</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Hemicordylus</t>
+          <t>Coturnix</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>半肢蜥属</t>
+          <t>鹌鹑属</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Labrus</t>
+          <t>Leuresthes</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>隆头鱼属</t>
+          <t>银汉鱼属</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Hypanus</t>
+          <t>Lacerta</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>魟属</t>
+          <t>草蜥属</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Tympanuchus</t>
+          <t>Hemicordylus</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>榛鸡属</t>
+          <t>半肢蜥属</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Haemorhous</t>
+          <t>Labrus</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>美洲朱雀属</t>
+          <t>隆头鱼属</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Hypanus</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>蟒属</t>
+          <t>魟属</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Candoia</t>
+          <t>Tympanuchus</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>筒蛇属</t>
+          <t>榛鸡属</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Heptranchias</t>
+          <t>Haemorhous</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>七鳃鲨属</t>
+          <t>美洲朱雀属</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Pseudonaja</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>虎蛇属</t>
+          <t>蟒属</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Camarhynchus</t>
+          <t>Candoia</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>树雀属</t>
+          <t>筒蛇属</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Rhinatrema</t>
+          <t>Heptranchias</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>吻蚓属</t>
+          <t>七鳃鲨属</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Denticeps</t>
+          <t>Camarhynchus</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>齿脂鲤属</t>
+          <t>树雀属</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Centrocercus</t>
+          <t>Rhinatrema</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>艾草松鸡属</t>
+          <t>吻蚓属</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Dendropsophus</t>
+          <t>Denticeps</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>雨滨蛙属</t>
+          <t>齿脂鲤属</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Plectropomus</t>
+          <t>Centrocercus</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>鳃棘鲈属</t>
+          <t>艾草松鸡属</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Zootoca</t>
+          <t>Dendropsophus</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>胎生蜥蜴属</t>
+          <t>雨滨蛙属</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Numida</t>
+          <t>Plectropomus</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>珠鸡属</t>
+          <t>鳃棘鲈属</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Amphiprion</t>
+          <t>Zootoca</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>双锯鱼属</t>
+          <t>胎生蜥蜴属</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Enoplosus</t>
+          <t>Numida</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>帆鳍鱼属</t>
+          <t>珠鸡属</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Thalassophryne</t>
+          <t>Amphiprion</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>海蟾鱼属</t>
+          <t>双锯鱼属</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Ammospiza</t>
+          <t>Enoplosus</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>沙鹀属</t>
+          <t>帆鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Cygnus</t>
+          <t>Thalassophryne</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>天鹅属</t>
+          <t>海蟾鱼属</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Rhea</t>
+          <t>Ammospiza</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>美洲鸵属</t>
+          <t>沙鹀属</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Takifugu</t>
+          <t>Cygnus</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>东方鲀属</t>
+          <t>天鹅属</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Melozone</t>
+          <t>Rhea</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>地雀鹀属</t>
+          <t>美洲鸵属</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Larus</t>
+          <t>Takifugu</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>鸥属</t>
+          <t>东方鲀属</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Cololabis</t>
+          <t>Melozone</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>秋刀鱼属</t>
+          <t>地雀鹀属</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Myiozetetes</t>
+          <t>Larus</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>蝇霸鹟属</t>
+          <t>鸥属</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Callorhinchus</t>
+          <t>Cololabis</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>叶吻银鲛属</t>
+          <t>秋刀鱼属</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Cuculus</t>
+          <t>Myiozetetes</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>杜鹃属</t>
+          <t>蝇霸鹟属</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Nerophis</t>
+          <t>Callorhinchus</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>粗吻海龙属</t>
+          <t>叶吻银鲛属</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
+          <t>Cuculus</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>杜鹃属</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Nerophis</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>粗吻海龙属</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
           <t>Serinus</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>丝雀属</t>
         </is>

--- a/mapping/Vertebrate_Other.xlsx
+++ b/mapping/Vertebrate_Other.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B297"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1732,2254 +1732,2338 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Centroberyx</t>
+          <t>Anolis</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>燧鲷属</t>
+          <t>安乐蜥属</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Spea</t>
+          <t>Emydura</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>锄足蟾属</t>
+          <t>澳龟属</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Chanos</t>
+          <t>Polyodon</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>遮目鱼属</t>
+          <t>白鲟属</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Protopterus</t>
+          <t>Cyrtonyx</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>原鳍鱼属</t>
+          <t>彩鹑属</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ambystoma</t>
+          <t>Trachinotus</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>钝口螈属</t>
+          <t>鲳鲹属</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Scomber</t>
+          <t>Spea</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>鲭属</t>
+          <t>锄足蟾属</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Anas</t>
+          <t>Salarias</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>鸭属</t>
+          <t>唇指䲁属</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Heterodontus</t>
+          <t>Mastacembelus</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>虎鲨属</t>
+          <t>刺鳅属</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bombina</t>
+          <t>Chamaea</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>铃蟾属</t>
+          <t>丛雀属</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Aquarana</t>
+          <t>Nerophis</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>水蛙属</t>
+          <t>粗吻海龙属</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Falco</t>
+          <t>Melozone</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>隼属</t>
+          <t>地雀鹀属</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Chamaea</t>
+          <t>Pezoporus</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>丛雀属</t>
+          <t>地鹦鹉属</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Melanerpes</t>
+          <t>Brienomyrus</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>吸汁啄木鸟属</t>
+          <t>短颌鱼属</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Neoarius</t>
+          <t>Ambystoma</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>新海鲶属</t>
+          <t>钝口螈属</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Trachinotus</t>
+          <t>Dromaius</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>鲳鲹属</t>
+          <t>鸸鹋属</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Phyllobates</t>
+          <t>Mobula</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>叶毒蛙属</t>
+          <t>蝠鲼属</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nematolebias</t>
+          <t>Melospiza</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>线鳉属</t>
+          <t>歌带鹀属</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Eublepharis</t>
+          <t>Haliaeetus</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>睑虎属</t>
+          <t>海雕属</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ahaetulla</t>
+          <t>Doryrhamphus</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>瘦蛇属</t>
+          <t>海龙属</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Melospiza</t>
+          <t>Engystomops</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>歌带鹀属</t>
+          <t>合附蟾属</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Eleutherodactylus</t>
+          <t>Cinclus</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>雨蛙属</t>
+          <t>河乌属</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Colius</t>
+          <t>Hypanus</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>鼠鸟属</t>
+          <t>魟属</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Polyodon</t>
+          <t>Osmerus</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>白鲟属</t>
+          <t>胡瓜鱼属</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Gadus</t>
+          <t>Heterodontus</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>鳕属</t>
+          <t>虎鲨属</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Doryrhamphus</t>
+          <t>Apteryx</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>海龙属</t>
+          <t>几维鸟属</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Salarias</t>
+          <t>Nothobranchius</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>唇指䲁属</t>
+          <t>假鳃鳉属</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sphaeramia</t>
+          <t>Eublepharis</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>玫瑰鱼属</t>
+          <t>睑虎属</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Apteryx</t>
+          <t>Cyprinodon</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>几维鸟属</t>
+          <t>鳉属</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Malaclemys</t>
+          <t>Lepidothrix</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>钻纹龟属</t>
+          <t>娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Astyanax</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>原鸡属</t>
+          <t>丽脂鲤属</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cyprinodon</t>
+          <t>Bombina</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>鳉属</t>
+          <t>铃蟾属</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Conger</t>
+          <t>Semicossyphus</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>康吉鳗属</t>
+          <t>隆头鱼属</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Crotalus</t>
+          <t>Oreochromis</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>响尾蛇属</t>
+          <t>罗非鱼属</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pelobates</t>
+          <t>Austrofundulus</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>欧芹蟾属</t>
+          <t>南鳉属</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lepidothrix</t>
+          <t>Molothrus</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>娇鹟属</t>
+          <t>牛鹂属</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Patagioenas</t>
+          <t>Lethenteron</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>鸽属</t>
+          <t>七鳃鳗属</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Emydura</t>
+          <t>Heptranchias</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>澳龟属</t>
+          <t>七鳃鲨属</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Phaenicophaeus</t>
+          <t>Cololabis</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>鹃鵙属</t>
+          <t>秋刀鱼属</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Carettochelys</t>
+          <t>Ammospiza</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>猪鼻龟属</t>
+          <t>沙鹀属</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dryobates</t>
+          <t>Epinephelus</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>啄木鸟属</t>
+          <t>石斑鱼属</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gambusia</t>
+          <t>Brachionichthys</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>食蚊鱼属</t>
+          <t>手鱼属</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mastacembelus</t>
+          <t>Pituophis</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>刺鳅属</t>
+          <t>松蛇属</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Girardinichthys</t>
+          <t>Centroberyx</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>吉拉德食蚊鱼属</t>
+          <t>燧鲷属</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Rhineura</t>
+          <t>Falco</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>蠕蜥属</t>
+          <t>隼属</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Epinephelus</t>
+          <t>Solea</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>石斑鱼属</t>
+          <t>鳎属</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Brachionichthys</t>
+          <t>Candoia</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>手鱼属</t>
+          <t>筒蛇属</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Microcaecilia</t>
+          <t>Struthio</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>小盲螈属</t>
+          <t>鸵鸟属</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Buteo</t>
+          <t>Pseudophryne</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>鵟属</t>
+          <t>伪蟾属</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Brienomyrus</t>
+          <t>Gadus</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>短颌鱼属</t>
+          <t>鳕属</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Anoplopoma</t>
+          <t>Callorhinchus</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>裸盖鱼属</t>
+          <t>叶吻银鲛属</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Osmerus</t>
+          <t>Heteronotia</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>胡瓜鱼属</t>
+          <t>异鳞虎属</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Pristiophorus</t>
+          <t>Anomalospiza</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>锯鲨属</t>
+          <t>异雀属</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Tyto</t>
+          <t>Eleutherodactylus</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>草鸮属</t>
+          <t>雨蛙属</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Synchiropus</t>
+          <t>Protopterus</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>连鳍䲗属</t>
+          <t>原鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hyla</t>
+          <t>Chanos</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>雨蛙属</t>
+          <t>遮目鱼属</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Pseudophryne</t>
+          <t>Euleptes</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>伪蟾属</t>
+          <t>真壁蜥属</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Mobula</t>
+          <t>Eucyclogobius</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>蝠鲼属</t>
+          <t>真弯颌鳚属</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Heteronotia</t>
+          <t>Carettochelys</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>异鳞虎属</t>
+          <t>猪鼻龟属</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Erpetoichthys</t>
+          <t>Hemiscyllium</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>苇栖多鳍鱼属</t>
+          <t>竹鲨属</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Austrofundulus</t>
+          <t>Malaclemys</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>南鳉属</t>
+          <t>钻纹龟属</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Gekko</t>
+          <t>Trematomus</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>壁虎属</t>
+          <t>南极冰鱼属</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Syngnathus</t>
+          <t>Latimeria</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>海龙属</t>
+          <t>矛尾鱼属</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Parambassis</t>
+          <t>Anguilla</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>副双边鱼属</t>
+          <t>鳗鲡属</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Salminus</t>
+          <t>Onychostruthus</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>突脂鲤属</t>
+          <t>雪雀属</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lethenteron</t>
+          <t>Hemibagrus</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>七鳃鳗属</t>
+          <t>半鲿属</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Dromaius</t>
+          <t>Cyclopterus</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>鸸鹋属</t>
+          <t>圆鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Natator</t>
+          <t>Grus</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>扁背龟属</t>
+          <t>鹤属</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Pseudochaenichthys</t>
+          <t>Scomber</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>冰鱼属</t>
+          <t>鲭属</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Syngnathoides</t>
+          <t>Anas</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>拟海龙属</t>
+          <t>鸭属</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Tiliqua</t>
+          <t>Aquarana</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>蓝舌石龙子属</t>
+          <t>水蛙属</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Lathamus</t>
+          <t>Melanerpes</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>吸蜜鹦鹉属</t>
+          <t>吸汁啄木鸟属</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Aythya</t>
+          <t>Neoarius</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>潜鸭属</t>
+          <t>新海鲶属</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Xiphophorus</t>
+          <t>Phyllobates</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>剑尾鱼属</t>
+          <t>叶毒蛙属</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Engystomops</t>
+          <t>Nematolebias</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>合附蟾属</t>
+          <t>线鳉属</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Solea</t>
+          <t>Ahaetulla</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>鳎属</t>
+          <t>瘦蛇属</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Pseudoliparis</t>
+          <t>Colius</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>拟狮子鱼属</t>
+          <t>鼠鸟属</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Lepisosteus</t>
+          <t>Sphaeramia</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>雀鳝属</t>
+          <t>玫瑰鱼属</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Struthio</t>
+          <t>Gallus</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>鸵鸟属</t>
+          <t>原鸡属</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Zonotrichia</t>
+          <t>Conger</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>带鹀属</t>
+          <t>康吉鳗属</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Eucyclogobius</t>
+          <t>Crotalus</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>真弯颌鳚属</t>
+          <t>响尾蛇属</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Pituophis</t>
+          <t>Pelobates</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>松蛇属</t>
+          <t>欧芹蟾属</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Nothobranchius</t>
+          <t>Patagioenas</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>假鳃鳉属</t>
+          <t>鸽属</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Chaetodon</t>
+          <t>Phaenicophaeus</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>蝴蝶鱼属</t>
+          <t>鹃鵙属</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Anomalospiza</t>
+          <t>Dryobates</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>异雀属</t>
+          <t>啄木鸟属</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Hippoglossus</t>
+          <t>Gambusia</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>庸鲽属</t>
+          <t>食蚊鱼属</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Chrysemys</t>
+          <t>Girardinichthys</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>彩龟属</t>
+          <t>吉拉德食蚊鱼属</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Manacus</t>
+          <t>Rhineura</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>娇鹟属</t>
+          <t>蠕蜥属</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Leucoraja</t>
+          <t>Microcaecilia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>白鳐属</t>
+          <t>小盲螈属</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Brachyistius</t>
+          <t>Buteo</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>短鳚属</t>
+          <t>鵟属</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cinclus</t>
+          <t>Anoplopoma</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>河乌属</t>
+          <t>裸盖鱼属</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Gopherus</t>
+          <t>Pristiophorus</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>沙龟属</t>
+          <t>锯鲨属</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pangasianodon</t>
+          <t>Tyto</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>巨鲶属</t>
+          <t>草鸮属</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cyrtonyx</t>
+          <t>Synchiropus</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>彩鹑属</t>
+          <t>连鳍䲗属</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Anolis</t>
+          <t>Hyla</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>安乐蜥属</t>
+          <t>雨蛙属</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Athene</t>
+          <t>Erpetoichthys</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>小鸮属</t>
+          <t>苇栖多鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Amblyraja</t>
+          <t>Gekko</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>扁鳐属</t>
+          <t>壁虎属</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Gouania</t>
+          <t>Syngnathus</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>咀签属</t>
+          <t>海龙属</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Pseudopodoces</t>
+          <t>Parambassis</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>地山雀属</t>
+          <t>副双边鱼属</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Geotrypetes</t>
+          <t>Salminus</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>真蚓属</t>
+          <t>突脂鲤属</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Euleptes</t>
+          <t>Natator</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>真壁蜥属</t>
+          <t>扁背龟属</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Molothrus</t>
+          <t>Pseudochaenichthys</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>牛鹂属</t>
+          <t>冰鱼属</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Poeciliopsis</t>
+          <t>Syngnathoides</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>花鳉属</t>
+          <t>拟海龙属</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Pagrus</t>
+          <t>Tiliqua</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>鲷属</t>
+          <t>蓝舌石龙子属</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Sardina</t>
+          <t>Lathamus</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>沙丁鱼属</t>
+          <t>吸蜜鹦鹉属</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Semicossyphus</t>
+          <t>Aythya</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>隆头鱼属</t>
+          <t>潜鸭属</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Myxine</t>
+          <t>Xiphophorus</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>盲鳗属</t>
+          <t>剑尾鱼属</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Hemiscyllium</t>
+          <t>Pseudoliparis</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>竹鲨属</t>
+          <t>拟狮子鱼属</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Chaetura</t>
+          <t>Lepisosteus</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>雨燕属</t>
+          <t>雀鳝属</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Pygocentrus</t>
+          <t>Zonotrichia</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>食人鲳属 / 水虎鱼属</t>
+          <t>带鹀属</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Antennarius</t>
+          <t>Chaetodon</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>躄鱼属</t>
+          <t>蝴蝶鱼属</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Astyanax</t>
+          <t>Hippoglossus</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>丽脂鲤属</t>
+          <t>庸鲽属</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Egretta</t>
+          <t>Chrysemys</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>白鹭属</t>
+          <t>彩龟属</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Clupea</t>
+          <t>Manacus</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>鲱属</t>
+          <t>娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Pezoporus</t>
+          <t>Leucoraja</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>地鹦鹉属</t>
+          <t>白鳐属</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Calypte</t>
+          <t>Brachyistius</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>星蜂鸟属</t>
+          <t>短鳚属</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Stegostoma</t>
+          <t>Gopherus</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>豹纹鲨属</t>
+          <t>沙龟属</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Prinia</t>
+          <t>Pangasianodon</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>鹪莺属</t>
+          <t>巨鲶属</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Thamnophis</t>
+          <t>Athene</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>束带蛇属</t>
+          <t>小鸮属</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Ardea</t>
+          <t>Amblyraja</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>鹭属</t>
+          <t>扁鳐属</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Engraulis</t>
+          <t>Gouania</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>鳀属</t>
+          <t>咀签属</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Anabas</t>
+          <t>Pseudopodoces</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>攀鲈属</t>
+          <t>地山雀属</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pogoniulus</t>
+          <t>Geotrypetes</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>须䴕属</t>
+          <t>真蚓属</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Astatotilapia</t>
+          <t>Poeciliopsis</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>星斑非鲫属</t>
+          <t>花鳉属</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Oreochromis</t>
+          <t>Pagrus</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>罗非鱼属</t>
+          <t>鲷属</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Terrapene</t>
+          <t>Sardina</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>箱龟属</t>
+          <t>沙丁鱼属</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Chelonia</t>
+          <t>Myxine</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>海龟属</t>
+          <t>盲鳗属</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Eleginops</t>
+          <t>Chaetura</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>南美鳕属</t>
+          <t>雨燕属</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Emys</t>
+          <t>Pygocentrus</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>泽龟属</t>
+          <t>食人鲳属 / 水虎鱼属</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Trachemys</t>
+          <t>Antennarius</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>彩龟属</t>
+          <t>躄鱼属</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Pelmatolapia</t>
+          <t>Egretta</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>盾皮鲷属</t>
+          <t>白鹭属</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Elgaria</t>
+          <t>Clupea</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>铠蜥属</t>
+          <t>鲱属</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Harpia</t>
+          <t>Calypte</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>角雕属</t>
+          <t>星蜂鸟属</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Crocodylus</t>
+          <t>Stegostoma</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>鳄属</t>
+          <t>豹纹鲨属</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Chiroxiphia</t>
+          <t>Prinia</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>领娇鹟属</t>
+          <t>鹪莺属</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Phalacrocorax</t>
+          <t>Thamnophis</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>鸬鹚属</t>
+          <t>束带蛇属</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Catharus</t>
+          <t>Ardea</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>夜鸫属</t>
+          <t>鹭属</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Siniperca</t>
+          <t>Engraulis</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>鳜属</t>
+          <t>鳀属</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Mauremys</t>
+          <t>Anabas</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>拟水龟属</t>
+          <t>攀鲈属</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Dermochelys</t>
+          <t>Pogoniulus</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>棱皮龟属</t>
+          <t>须䴕属</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Aquila</t>
+          <t>Astatotilapia</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>雕属</t>
+          <t>星斑非鲫属</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Nothoprocta</t>
+          <t>Terrapene</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>拟䳍属</t>
+          <t>箱龟属</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Ciconia</t>
+          <t>Chelonia</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>鹳属</t>
+          <t>海龟属</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Archocentrus</t>
+          <t>Eleginops</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>宝莲灯鱼属</t>
+          <t>南美鳕属</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Gavia</t>
+          <t>Emys</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>潜鸟属</t>
+          <t>泽龟属</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Ictalurus</t>
+          <t>Trachemys</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>鮰属</t>
+          <t>彩龟属</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Pseudonaja</t>
+          <t>Pelmatolapia</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>虎蛇属</t>
+          <t>盾皮鲷属</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Gymnodraco</t>
+          <t>Elgaria</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>裸龙鰧属</t>
+          <t>铠蜥属</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Phyllopteryx</t>
+          <t>Harpia</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>叶海龙属</t>
+          <t>角雕属</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Rhincodon</t>
+          <t>Crocodylus</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>鲸鲨属</t>
+          <t>鳄属</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Lepidochelys</t>
+          <t>Chiroxiphia</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>丽龟属</t>
+          <t>领娇鹟属</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Notechis</t>
+          <t>Phalacrocorax</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>虎蛇属</t>
+          <t>鸬鹚属</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Podarcis</t>
+          <t>Catharus</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>壁蜥属</t>
+          <t>夜鸫属</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Haliaeetus</t>
+          <t>Siniperca</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>海雕属</t>
+          <t>鳜属</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Carcharodon</t>
+          <t>Mauremys</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>噬人鲨属</t>
+          <t>拟水龟属</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Coturnix</t>
+          <t>Dermochelys</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>鹌鹑属</t>
+          <t>棱皮龟属</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Leuresthes</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>银汉鱼属</t>
+          <t>雕属</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Lacerta</t>
+          <t>Nothoprocta</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>草蜥属</t>
+          <t>拟䳍属</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Hemicordylus</t>
+          <t>Ciconia</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>半肢蜥属</t>
+          <t>鹳属</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Labrus</t>
+          <t>Archocentrus</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>隆头鱼属</t>
+          <t>宝莲灯鱼属</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Hypanus</t>
+          <t>Gavia</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>魟属</t>
+          <t>潜鸟属</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Tympanuchus</t>
+          <t>Ictalurus</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>榛鸡属</t>
+          <t>鮰属</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Haemorhous</t>
+          <t>Pseudonaja</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>美洲朱雀属</t>
+          <t>虎蛇属</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Gymnodraco</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>蟒属</t>
+          <t>裸龙鰧属</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Candoia</t>
+          <t>Phyllopteryx</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>筒蛇属</t>
+          <t>叶海龙属</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Heptranchias</t>
+          <t>Rhincodon</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>七鳃鲨属</t>
+          <t>鲸鲨属</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Camarhynchus</t>
+          <t>Lepidochelys</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>树雀属</t>
+          <t>丽龟属</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Rhinatrema</t>
+          <t>Notechis</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>吻蚓属</t>
+          <t>虎蛇属</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Denticeps</t>
+          <t>Podarcis</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>齿脂鲤属</t>
+          <t>壁蜥属</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Centrocercus</t>
+          <t>Carcharodon</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>艾草松鸡属</t>
+          <t>噬人鲨属</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Dendropsophus</t>
+          <t>Coturnix</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>雨滨蛙属</t>
+          <t>鹌鹑属</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Plectropomus</t>
+          <t>Leuresthes</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>鳃棘鲈属</t>
+          <t>银汉鱼属</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Zootoca</t>
+          <t>Lacerta</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>胎生蜥蜴属</t>
+          <t>草蜥属</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Numida</t>
+          <t>Hemicordylus</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>珠鸡属</t>
+          <t>半肢蜥属</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Amphiprion</t>
+          <t>Labrus</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>双锯鱼属</t>
+          <t>隆头鱼属</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Enoplosus</t>
+          <t>Tympanuchus</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>帆鳍鱼属</t>
+          <t>榛鸡属</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Thalassophryne</t>
+          <t>Haemorhous</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>海蟾鱼属</t>
+          <t>美洲朱雀属</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Ammospiza</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>沙鹀属</t>
+          <t>蟒属</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Cygnus</t>
+          <t>Camarhynchus</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>天鹅属</t>
+          <t>树雀属</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Rhea</t>
+          <t>Rhinatrema</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>美洲鸵属</t>
+          <t>吻蚓属</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Takifugu</t>
+          <t>Denticeps</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>东方鲀属</t>
+          <t>齿脂鲤属</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Melozone</t>
+          <t>Centrocercus</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>地雀鹀属</t>
+          <t>艾草松鸡属</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Larus</t>
+          <t>Dendropsophus</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>鸥属</t>
+          <t>雨滨蛙属</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Cololabis</t>
+          <t>Plectropomus</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>秋刀鱼属</t>
+          <t>鳃棘鲈属</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Myiozetetes</t>
+          <t>Zootoca</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>蝇霸鹟属</t>
+          <t>胎生蜥蜴属</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Callorhinchus</t>
+          <t>Numida</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>叶吻银鲛属</t>
+          <t>珠鸡属</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Cuculus</t>
+          <t>Amphiprion</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>杜鹃属</t>
+          <t>双锯鱼属</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Nerophis</t>
+          <t>Enoplosus</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>粗吻海龙属</t>
+          <t>帆鳍鱼属</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
+          <t>Thalassophryne</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>海蟾鱼属</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>天鹅属</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Rhea</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>美洲鸵属</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Takifugu</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>东方鲀属</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Larus</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>鸥属</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Myiozetetes</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>蝇霸鹟属</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Cuculus</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>杜鹃属</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
           <t>Serinus</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="B304" t="inlineStr">
         <is>
           <t>丝雀属</t>
         </is>
